--- a/template/Template-WT-1Location.xlsx
+++ b/template/Template-WT-1Location.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\dataImport\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\WildTrax\WT-Integration\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A841756-7747-4441-9A9B-24694CE2E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63950689-1B40-4A9F-87F9-35ADF6D63B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="18240" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template-WT-1Location" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Fieldname</t>
   </si>
@@ -44,39 +44,9 @@
     <t>Text</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Optional. Site is any part of the location name that groups the stations, if they are multiple parts, separate by hyphens (dashes)</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>Optional. Individual survey location, if there are multiple parts, separate by hyphens (dashes)</t>
-  </si>
-  <si>
-    <t>utm zone</t>
-  </si>
-  <si>
-    <t>Optional. Include if it exists in the original file</t>
-  </si>
-  <si>
-    <t>easting</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Optional. Include if it exists in the source file</t>
-  </si>
-  <si>
-    <t>northing</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -104,12 +74,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>missinginlocations</t>
-  </si>
-  <si>
-    <t>Optional. Information on missing locations</t>
-  </si>
-  <si>
     <t>QC-ATLAS:15PM01:1</t>
   </si>
   <si>
@@ -123,12 +87,6 @@
   </si>
   <si>
     <t>QC-ATLAS:15PM01:5</t>
-  </si>
-  <si>
-    <t>utmZone</t>
-  </si>
-  <si>
-    <t>15PM01</t>
   </si>
   <si>
     <t>As needed. Any comments related to locations</t>
@@ -1005,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,59 +974,41 @@
     <col min="1" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
       </c>
       <c r="B2">
         <v>46.844528199999999</v>
@@ -1076,19 +1016,10 @@
       <c r="C2">
         <v>-79.161186220000005</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>46.843814850000001</v>
@@ -1096,19 +1027,10 @@
       <c r="C3">
         <v>-79.154525759999999</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
       </c>
       <c r="B4">
         <v>46.834110260000003</v>
@@ -1116,19 +1038,10 @@
       <c r="C4">
         <v>-79.124198910000004</v>
       </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>46.832332610000002</v>
@@ -1136,34 +1049,16 @@
       <c r="C5">
         <v>-79.08859253</v>
       </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>46.829280850000004</v>
       </c>
       <c r="C6">
         <v>-79.082580570000005</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,96 +1102,96 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1305,26 +1200,26 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1333,90 +1228,6 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
         <v>28</v>
       </c>
     </row>
